--- a/BackTest/2020-01-20 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-20 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>-977319.6949364173</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.51</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>-979890.6735364173</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>11.64</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +562,23 @@
         <v>-979890.6735364173</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>11.51</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,24 +603,23 @@
         <v>-1030535.516736417</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>11.51</v>
       </c>
       <c r="J6" t="n">
         <v>11.51</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -642,24 +644,23 @@
         <v>-987535.5167364173</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>11.31</v>
       </c>
       <c r="J7" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+        <v>11.51</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -684,24 +685,23 @@
         <v>-957535.5167364173</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>11.32</v>
       </c>
       <c r="J8" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+        <v>11.51</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -726,24 +726,23 @@
         <v>-957535.5167364173</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>11.34</v>
       </c>
       <c r="J9" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+        <v>11.51</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -768,24 +767,23 @@
         <v>-957535.5167364173</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>11.34</v>
       </c>
       <c r="J10" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+        <v>11.51</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -810,24 +808,23 @@
         <v>-849212.5012364173</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>11.34</v>
       </c>
       <c r="J11" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+        <v>11.51</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -852,24 +849,23 @@
         <v>-849212.5012364173</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>11.65</v>
       </c>
       <c r="J12" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+        <v>11.51</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -894,22 +890,23 @@
         <v>-849212.5012364173</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+        <v>11.65</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -934,22 +931,23 @@
         <v>-840636.4246364173</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+        <v>11.65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -976,20 +974,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1016,20 +1013,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1056,20 +1052,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1096,20 +1091,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1136,20 +1130,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1174,20 +1167,21 @@
         <v>-109248.1438364174</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
       </c>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1214,16 +1208,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1248,18 +1245,21 @@
         <v>-109567.0893364174</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1286,16 +1286,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1322,16 +1325,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1358,16 +1364,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1394,16 +1403,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1428,18 +1440,21 @@
         <v>-41722.98833641737</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1.025408340573414</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1464,18 +1479,15 @@
         <v>-60080.13793641738</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1500,18 +1512,15 @@
         <v>-48528.83223641738</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1538,16 +1547,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1574,16 +1580,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1610,16 +1613,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1644,18 +1644,15 @@
         <v>-164684.7113364174</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1682,16 +1679,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1718,16 +1712,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1754,16 +1745,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1788,18 +1776,15 @@
         <v>-319205.1048364174</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1824,18 +1809,15 @@
         <v>-319160.1048364174</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1860,18 +1842,15 @@
         <v>-395907.0423364174</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1898,16 +1877,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1932,18 +1908,15 @@
         <v>-454933.1532364173</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1970,16 +1943,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2006,16 +1976,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2042,16 +2009,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2078,16 +2042,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2114,16 +2075,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2150,16 +2108,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2186,16 +2141,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2222,16 +2174,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2258,16 +2207,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2294,16 +2240,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2330,16 +2273,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2366,16 +2306,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2402,16 +2339,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2438,16 +2372,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2474,16 +2405,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2510,16 +2438,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2546,16 +2471,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2582,16 +2504,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2618,16 +2537,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2652,18 +2568,15 @@
         <v>-20806.56232205831</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2690,16 +2603,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2726,16 +2636,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2762,16 +2669,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2798,16 +2702,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2834,16 +2735,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2870,16 +2768,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2906,16 +2801,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2942,16 +2834,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2978,16 +2867,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3014,16 +2900,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3050,16 +2933,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3086,16 +2966,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3122,16 +2999,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3158,16 +3032,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3194,16 +3065,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3230,16 +3098,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3266,16 +3131,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3302,16 +3164,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3338,16 +3197,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3374,16 +3230,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3410,16 +3263,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3446,16 +3296,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3482,16 +3329,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3518,16 +3362,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3554,16 +3395,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3590,16 +3428,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3626,16 +3461,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3662,16 +3494,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3698,16 +3527,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3734,16 +3560,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3770,16 +3593,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3806,16 +3626,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3842,16 +3659,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3878,16 +3692,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3914,16 +3725,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3948,24 +3756,21 @@
         <v>-1231611.644122058</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
         <v>11.4</v>
       </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3990,22 +3795,21 @@
         <v>-1223767.543122058</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4030,24 +3834,21 @@
         <v>-1223767.543122058</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
         <v>11.3</v>
       </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4072,24 +3873,19 @@
         <v>-1155764.211022058</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4114,24 +3910,19 @@
         <v>-1205764.211022058</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4156,24 +3947,21 @@
         <v>-1205720.211022058</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
         <v>11.3</v>
       </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4198,22 +3986,21 @@
         <v>-1206172.585622058</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>11.49</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4238,22 +4025,21 @@
         <v>-1298001.221022058</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4278,22 +4064,21 @@
         <v>-1297957.221022058</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>11.02</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4318,22 +4103,21 @@
         <v>-1298656.673022058</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>11.41</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4360,20 +4144,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4398,24 +4179,19 @@
         <v>-1384597.811022058</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4440,26 +4216,23 @@
         <v>-1384597.811022058</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
         <v>11.01</v>
       </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-20 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>-977319.6949364173</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-979890.6735364173</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-979890.6735364173</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-1030535.516736417</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>-987535.5167364173</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="J7" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,15 @@
         <v>-957535.5167364173</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>11.32</v>
       </c>
       <c r="J8" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.32</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,17 +686,17 @@
         <v>-957535.5167364173</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>11.34</v>
       </c>
       <c r="J9" t="n">
-        <v>11.51</v>
+        <v>11.32</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -767,17 +727,17 @@
         <v>-957535.5167364173</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>11.34</v>
       </c>
       <c r="J10" t="n">
-        <v>11.51</v>
+        <v>11.32</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -808,19 +768,15 @@
         <v>-849212.5012364173</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>11.34</v>
       </c>
       <c r="J11" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.34</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,17 +805,17 @@
         <v>-849212.5012364173</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>11.65</v>
       </c>
       <c r="J12" t="n">
-        <v>11.51</v>
+        <v>11.34</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -890,17 +846,15 @@
         <v>-849212.5012364173</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>11.51</v>
+        <v>11.34</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -931,19 +885,11 @@
         <v>-840636.4246364173</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -975,14 +921,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1014,14 +954,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1050,15 +984,15 @@
         <v>-834353.0519364174</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>11.51</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1089,12 +1023,12 @@
         <v>-853860.6724364173</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>11.51</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1131,9 +1065,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>11.51</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1167,12 +1099,10 @@
         <v>-109248.1438364174</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>11.51</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1209,9 +1139,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>11.51</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1245,12 +1173,10 @@
         <v>-109567.0893364174</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>11.51</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1287,9 +1213,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>11.51</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1326,9 +1250,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>11.51</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1365,9 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>11.51</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1404,9 +1324,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>11.51</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1440,19 +1358,17 @@
         <v>-41722.98833641737</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>11.51</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.025408340573414</v>
+        <v>1</v>
       </c>
       <c r="M27" t="inlineStr"/>
     </row>
@@ -1479,11 +1395,15 @@
         <v>-60080.13793641738</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1512,11 +1432,15 @@
         <v>-48528.83223641738</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1549,7 +1473,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1582,7 +1510,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1615,7 +1547,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1644,11 +1580,15 @@
         <v>-164684.7113364174</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1681,7 +1621,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1714,7 +1658,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1747,7 +1695,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1776,11 +1728,15 @@
         <v>-319205.1048364174</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1809,11 +1765,15 @@
         <v>-319160.1048364174</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1842,11 +1802,15 @@
         <v>-395907.0423364174</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1879,7 +1843,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1908,11 +1876,15 @@
         <v>-454933.1532364173</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1945,7 +1917,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1978,7 +1954,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2011,7 +1991,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2044,7 +2028,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2077,7 +2065,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2110,7 +2102,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2143,7 +2139,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2176,7 +2176,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2209,7 +2213,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2242,7 +2250,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2275,7 +2287,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2308,7 +2324,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2341,7 +2361,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2374,7 +2398,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2407,7 +2435,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2440,7 +2472,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2473,7 +2509,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2502,14 +2542,16 @@
         <v>-20851.56232205831</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2535,7 +2577,7 @@
         <v>-20806.56232205831</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2568,7 +2610,7 @@
         <v>-20806.56232205831</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2601,7 +2643,7 @@
         <v>-221182.5573220583</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2634,7 +2676,7 @@
         <v>-221139.5573220583</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2667,7 +2709,7 @@
         <v>-221722.0807220583</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2700,7 +2742,7 @@
         <v>-286364.5335220583</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2733,7 +2775,7 @@
         <v>-273064.5335220583</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2766,7 +2808,7 @@
         <v>-268801.6872220583</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2799,7 +2841,7 @@
         <v>-286402.6872220583</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3756,17 +3798,11 @@
         <v>-1231611.644122058</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3795,17 +3831,11 @@
         <v>-1223767.543122058</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3834,17 +3864,11 @@
         <v>-1223767.543122058</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3877,11 +3901,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3914,11 +3934,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3947,17 +3963,11 @@
         <v>-1205720.211022058</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3986,17 +3996,11 @@
         <v>-1206172.585622058</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>11.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4025,17 +4029,11 @@
         <v>-1298001.221022058</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4064,17 +4062,11 @@
         <v>-1297957.221022058</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>11.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4103,17 +4095,11 @@
         <v>-1298656.673022058</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>11.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4146,11 +4132,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4179,13 +4161,15 @@
         <v>-1384597.811022058</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>11.02</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -4216,7 +4200,7 @@
         <v>-1384597.811022058</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>11.01</v>
@@ -4233,6 +4217,6 @@
       <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-20 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,14 +649,10 @@
         <v>-957535.5167364173</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -686,19 +682,11 @@
         <v>-957535.5167364173</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="J9" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -727,19 +715,11 @@
         <v>-957535.5167364173</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="J10" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -768,14 +748,10 @@
         <v>-849212.5012364173</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -805,19 +781,11 @@
         <v>-849212.5012364173</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="J12" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -849,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -984,17 +946,11 @@
         <v>-834353.0519364174</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1023,17 +979,11 @@
         <v>-853860.6724364173</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1066,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1103,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1140,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1214,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1251,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1288,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1325,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1362,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1399,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1436,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1473,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1510,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1547,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1584,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1621,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1658,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1695,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1732,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1769,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1806,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1843,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1880,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1917,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1954,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1987,15 +1837,11 @@
         <v>-109391.4504364173</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2024,15 +1870,11 @@
         <v>-109280.4504364173</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2065,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2102,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2135,15 +1969,11 @@
         <v>-27558.6062292378</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2172,15 +2002,11 @@
         <v>-27558.6062292378</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2213,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2246,15 +2068,11 @@
         <v>-27558.6062292378</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2283,15 +2101,11 @@
         <v>-30758.6062292378</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2320,15 +2134,11 @@
         <v>-30715.6062292378</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2361,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2435,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2472,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2509,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2542,16 +2332,14 @@
         <v>-20851.56232205831</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
       <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2577,7 +2365,7 @@
         <v>-20806.56232205831</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2610,7 +2398,7 @@
         <v>-20806.56232205831</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2643,7 +2431,7 @@
         <v>-221182.5573220583</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2676,7 +2464,7 @@
         <v>-221139.5573220583</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2709,7 +2497,7 @@
         <v>-221722.0807220583</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2742,7 +2530,7 @@
         <v>-286364.5335220583</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2775,7 +2563,7 @@
         <v>-273064.5335220583</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2808,7 +2596,7 @@
         <v>-268801.6872220583</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2841,7 +2629,7 @@
         <v>-286402.6872220583</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4217,6 +4005,6 @@
       <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-20 BackTest ETZ.xlsx
@@ -1078,7 +1078,7 @@
         <v>-109139.0072364174</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-109567.0893364174</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-109611.0893364174</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-109391.4504364173</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-109280.4504364173</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-27558.6062292378</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-27558.6062292378</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-27558.6062292378</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-30758.6062292378</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-30715.6062292378</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>

--- a/BackTest/2020-01-20 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-20 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>6452.9887</v>
       </c>
       <c r="G2" t="n">
-        <v>-977363.6949364173</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>-977319.6949364173</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2570.9786</v>
       </c>
       <c r="G4" t="n">
-        <v>-979890.6735364173</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>101102.574</v>
       </c>
       <c r="G5" t="n">
-        <v>-979890.6735364173</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>50644.8432</v>
       </c>
       <c r="G6" t="n">
-        <v>-1030535.516736417</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>43000</v>
       </c>
       <c r="G7" t="n">
-        <v>-987535.5167364173</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>30000</v>
       </c>
       <c r="G8" t="n">
-        <v>-957535.5167364173</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>20000</v>
       </c>
       <c r="G9" t="n">
-        <v>-957535.5167364173</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1067.4564</v>
       </c>
       <c r="G10" t="n">
-        <v>-957535.5167364173</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>108323.0155</v>
       </c>
       <c r="G11" t="n">
-        <v>-849212.5012364173</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>3298.5621</v>
       </c>
       <c r="G12" t="n">
-        <v>-849212.5012364173</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>18794.4908</v>
       </c>
       <c r="G13" t="n">
-        <v>-849212.5012364173</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>8576.0766</v>
       </c>
       <c r="G14" t="n">
-        <v>-840636.4246364173</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>6176.3844</v>
       </c>
       <c r="G15" t="n">
-        <v>-834460.0402364173</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3029.3474</v>
       </c>
       <c r="G16" t="n">
-        <v>-834460.0402364173</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>106.9883</v>
       </c>
       <c r="G17" t="n">
-        <v>-834353.0519364174</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>19507.6205</v>
       </c>
       <c r="G18" t="n">
-        <v>-853860.6724364173</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>781359.9669999999</v>
       </c>
       <c r="G19" t="n">
-        <v>-72500.70543641737</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>36747.4384</v>
       </c>
       <c r="G20" t="n">
-        <v>-109248.1438364174</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>109.1366</v>
       </c>
       <c r="G21" t="n">
-        <v>-109139.0072364174</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>428.0821</v>
       </c>
       <c r="G22" t="n">
-        <v>-109567.0893364174</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>44</v>
       </c>
       <c r="G23" t="n">
-        <v>-109611.0893364174</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>44</v>
       </c>
       <c r="G24" t="n">
-        <v>-109567.0893364174</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>7844.101</v>
       </c>
       <c r="G25" t="n">
-        <v>-101722.9883364174</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>10578.1852</v>
       </c>
       <c r="G26" t="n">
-        <v>-101722.9883364174</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>60000</v>
       </c>
       <c r="G27" t="n">
-        <v>-41722.98833641737</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>18357.1496</v>
       </c>
       <c r="G28" t="n">
-        <v>-60080.13793641738</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>11551.3057</v>
       </c>
       <c r="G29" t="n">
-        <v>-48528.83223641738</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>25113.1612</v>
       </c>
       <c r="G30" t="n">
-        <v>-73641.99343641738</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>61230</v>
       </c>
       <c r="G31" t="n">
-        <v>-134871.9934364174</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>187.2821</v>
       </c>
       <c r="G32" t="n">
-        <v>-134684.7113364174</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>30000</v>
       </c>
       <c r="G33" t="n">
-        <v>-164684.7113364174</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>154427.5124</v>
       </c>
       <c r="G34" t="n">
-        <v>-319112.2237364174</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>496285.2484</v>
       </c>
       <c r="G35" t="n">
-        <v>-319112.2237364174</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>36823.9298</v>
       </c>
       <c r="G36" t="n">
-        <v>-319112.2237364174</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>92.8811</v>
       </c>
       <c r="G37" t="n">
-        <v>-319205.1048364174</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>-319160.1048364174</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>76746.9375</v>
       </c>
       <c r="G39" t="n">
-        <v>-395907.0423364174</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>59070.1109</v>
       </c>
       <c r="G40" t="n">
-        <v>-454977.1532364173</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>44</v>
       </c>
       <c r="G41" t="n">
-        <v>-454933.1532364173</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>355541.7028</v>
       </c>
       <c r="G42" t="n">
-        <v>-99391.4504364173</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2000</v>
       </c>
       <c r="G43" t="n">
-        <v>-99391.4504364173</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>10000</v>
       </c>
       <c r="G44" t="n">
-        <v>-109391.4504364173</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>111</v>
       </c>
       <c r="G45" t="n">
-        <v>-109280.4504364173</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>62149</v>
       </c>
       <c r="G46" t="n">
-        <v>-171429.4504364173</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>171045.6702071795</v>
       </c>
       <c r="G47" t="n">
-        <v>-383.7802292378037</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>27174.826</v>
       </c>
       <c r="G48" t="n">
-        <v>-27558.6062292378</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>20381.1196</v>
       </c>
       <c r="G49" t="n">
-        <v>-27558.6062292378</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>257.8897</v>
       </c>
       <c r="G50" t="n">
-        <v>-27558.6062292378</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>48984.5656</v>
       </c>
       <c r="G51" t="n">
-        <v>-27558.6062292378</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>3200</v>
       </c>
       <c r="G52" t="n">
-        <v>-30758.6062292378</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>43</v>
       </c>
       <c r="G53" t="n">
-        <v>-30715.6062292378</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>60484.84</v>
       </c>
       <c r="G54" t="n">
-        <v>-91200.4462292378</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>92.8811</v>
       </c>
       <c r="G55" t="n">
-        <v>-91200.4462292378</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>200375.995</v>
       </c>
       <c r="G56" t="n">
-        <v>109175.5487707622</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1893.1792</v>
       </c>
       <c r="G57" t="n">
-        <v>109175.5487707622</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>76791.9375</v>
       </c>
       <c r="G58" t="n">
-        <v>109175.5487707622</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>130027.1110928205</v>
       </c>
       <c r="G59" t="n">
-        <v>-20851.56232205831</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>45</v>
       </c>
       <c r="G60" t="n">
-        <v>-20806.56232205831</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>90</v>
       </c>
       <c r="G61" t="n">
-        <v>-20806.56232205831</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>200375.995</v>
       </c>
       <c r="G62" t="n">
-        <v>-221182.5573220583</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>43</v>
       </c>
       <c r="G63" t="n">
-        <v>-221139.5573220583</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>582.5234</v>
       </c>
       <c r="G64" t="n">
-        <v>-221722.0807220583</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>64642.4528</v>
       </c>
       <c r="G65" t="n">
-        <v>-286364.5335220583</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>13300</v>
       </c>
       <c r="G66" t="n">
-        <v>-273064.5335220583</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>4262.8463</v>
       </c>
       <c r="G67" t="n">
-        <v>-268801.6872220583</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>17601</v>
       </c>
       <c r="G68" t="n">
-        <v>-286402.6872220583</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>17601</v>
       </c>
       <c r="G69" t="n">
-        <v>-304003.6872220583</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>26631</v>
       </c>
       <c r="G70" t="n">
-        <v>-330634.6872220583</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>167800</v>
       </c>
       <c r="G71" t="n">
-        <v>-498434.6872220583</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>92344.39</v>
       </c>
       <c r="G72" t="n">
-        <v>-590779.0772220583</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>355652.7028</v>
       </c>
       <c r="G73" t="n">
-        <v>-946431.7800220584</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>2547.7743</v>
       </c>
       <c r="G74" t="n">
-        <v>-943884.0057220584</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,19 @@
         <v>50</v>
       </c>
       <c r="G75" t="n">
-        <v>-943834.0057220584</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>11.26</v>
+      </c>
+      <c r="I75" t="n">
+        <v>11.26</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2667,21 @@
         <v>45</v>
       </c>
       <c r="G76" t="n">
-        <v>-943879.0057220584</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2703,21 @@
         <v>43</v>
       </c>
       <c r="G77" t="n">
-        <v>-943836.0057220584</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2739,15 @@
         <v>3813.541</v>
       </c>
       <c r="G78" t="n">
-        <v>-943836.0057220584</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2769,15 @@
         <v>357454.5734</v>
       </c>
       <c r="G79" t="n">
-        <v>-1301290.579122058</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2799,15 @@
         <v>12427.2284</v>
       </c>
       <c r="G80" t="n">
-        <v>-1288863.350722058</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2829,15 @@
         <v>35940</v>
       </c>
       <c r="G81" t="n">
-        <v>-1324803.350722058</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2859,15 @@
         <v>5576</v>
       </c>
       <c r="G82" t="n">
-        <v>-1330379.350722058</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2889,15 @@
         <v>44</v>
       </c>
       <c r="G83" t="n">
-        <v>-1330335.350722058</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2919,15 @@
         <v>22744</v>
       </c>
       <c r="G84" t="n">
-        <v>-1353079.350722058</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2949,15 @@
         <v>44</v>
       </c>
       <c r="G85" t="n">
-        <v>-1353035.350722058</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2979,15 @@
         <v>175.0776</v>
       </c>
       <c r="G86" t="n">
-        <v>-1353035.350722058</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3009,15 @@
         <v>6237</v>
       </c>
       <c r="G87" t="n">
-        <v>-1359272.350722058</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3039,15 @@
         <v>9752</v>
       </c>
       <c r="G88" t="n">
-        <v>-1369024.350722058</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3069,15 @@
         <v>3003</v>
       </c>
       <c r="G89" t="n">
-        <v>-1366021.350722058</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3099,15 @@
         <v>156487.5866</v>
       </c>
       <c r="G90" t="n">
-        <v>-1209533.764122058</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3129,15 @@
         <v>44</v>
       </c>
       <c r="G91" t="n">
-        <v>-1209489.764122058</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3159,15 @@
         <v>13073.6683</v>
       </c>
       <c r="G92" t="n">
-        <v>-1209489.764122058</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3189,15 @@
         <v>44</v>
       </c>
       <c r="G93" t="n">
-        <v>-1209445.764122058</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3219,15 @@
         <v>9672</v>
       </c>
       <c r="G94" t="n">
-        <v>-1219117.764122058</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3249,15 @@
         <v>1779</v>
       </c>
       <c r="G95" t="n">
-        <v>-1219117.764122058</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3279,15 @@
         <v>0.0036</v>
       </c>
       <c r="G96" t="n">
-        <v>-1219117.764122058</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3309,15 @@
         <v>12493.88</v>
       </c>
       <c r="G97" t="n">
-        <v>-1231611.644122058</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3339,15 @@
         <v>7844.101</v>
       </c>
       <c r="G98" t="n">
-        <v>-1223767.543122058</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3369,15 @@
         <v>146815.5866</v>
       </c>
       <c r="G99" t="n">
-        <v>-1223767.543122058</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3399,15 @@
         <v>68003.3321</v>
       </c>
       <c r="G100" t="n">
-        <v>-1155764.211022058</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3429,15 @@
         <v>50000</v>
       </c>
       <c r="G101" t="n">
-        <v>-1205764.211022058</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3459,15 @@
         <v>44</v>
       </c>
       <c r="G102" t="n">
-        <v>-1205720.211022058</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3489,15 @@
         <v>452.3746</v>
       </c>
       <c r="G103" t="n">
-        <v>-1206172.585622058</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3519,15 @@
         <v>91828.6354</v>
       </c>
       <c r="G104" t="n">
-        <v>-1298001.221022058</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3549,15 @@
         <v>44</v>
       </c>
       <c r="G105" t="n">
-        <v>-1297957.221022058</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3579,15 @@
         <v>699.452</v>
       </c>
       <c r="G106" t="n">
-        <v>-1298656.673022058</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3609,15 @@
         <v>10000</v>
       </c>
       <c r="G107" t="n">
-        <v>-1298656.673022058</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,24 +3639,15 @@
         <v>85941.13800000001</v>
       </c>
       <c r="G108" t="n">
-        <v>-1384597.811022058</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>11.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3985,24 +3669,15 @@
         <v>7490.3126</v>
       </c>
       <c r="G109" t="n">
-        <v>-1384597.811022058</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>11.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
